--- a/biology/Botanique/Erycina_pusilla/Erycina_pusilla.xlsx
+++ b/biology/Botanique/Erycina_pusilla/Erycina_pusilla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erycina pusilla est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et de la sous-tribu des Oncidiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Erycina pusilla est une espèce néotropicale. Son aire de répartition inclut l'Amérique du Sud et l'Amérique centrale, le sud du Mexique, les Caraïbes et le sud de la Floride. 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles sont lancéolées et arrangées en éventail. À la différence d'autres orchidées similaires, E. pusilla ne développe jamais de feuilles repliées sur leur longueur ni d'organes de réserves (pseudobulbes).
 </t>
@@ -573,11 +589,13 @@
           <t>Utilisation en science</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante modèle du fait de sa petite taille, de sa facilité de culture in vitro et sa rapidité de croissance[1].
-C'est un modèle de la culture des Oncidium et Oncidiinae. Le génome du chloroplaste de la plante a été séquencé en 2012[2].
-Une procédure de transformation génétique par le biais d’Agrobacterium a été publiée en  2015[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante modèle du fait de sa petite taille, de sa facilité de culture in vitro et sa rapidité de croissance.
+C'est un modèle de la culture des Oncidium et Oncidiinae. Le génome du chloroplaste de la plante a été séquencé en 2012.
+Une procédure de transformation génétique par le biais d’Agrobacterium a été publiée en  2015.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Williams N.H. &amp; Chase M.W., 2001. Lindleyana 16(2): 136.</t>
         </is>
